--- a/data/income_statement/3digits/total/325_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/325_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>325-Manufacture of medical and dental instruments and supplies</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>325-Manufacture of medical and dental instruments and supplies</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>1137855.26497</v>
@@ -959,73 +865,83 @@
         <v>1661977.35423</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>1845605.9502</v>
+        <v>1845637.54025</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>2257741.619</v>
+        <v>2260984.4476</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>2664611.98574</v>
+        <v>2667241.16671</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>2952066.24216</v>
+        <v>2970073.31845</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>3512833.65715</v>
+        <v>3547431.32838</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>4282643.40503</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>5849921.09</v>
+        <v>5853874.253260001</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>7510572.29232</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>7551283.986299999</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>11431664.054</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>875540.9725500001</v>
+        <v>875540.9725499999</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>984656.9844500001</v>
+        <v>984656.9844499999</v>
       </c>
       <c r="E6" s="48" t="n">
         <v>1239919.24773</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>1346174.15851</v>
+        <v>1346201.8941</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>1553721.4379</v>
+        <v>1556963.67466</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>1842605.93954</v>
+        <v>1843966.90773</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>2036657.68153</v>
+        <v>2047192.43713</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>2408979.94711</v>
+        <v>2436461.01794</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>2910768.55707</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>3772925.5354</v>
+        <v>3776602.84091</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>4840818.04086</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>4878068.555439999</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>6688832.153</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>248116.91001</v>
@@ -1034,37 +950,42 @@
         <v>306241.67975</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>405604.8328800001</v>
+        <v>405604.83288</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>473021.88802</v>
+        <v>473025.74248</v>
       </c>
       <c r="G7" s="48" t="n">
         <v>678636.01289</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>798584.3555200001</v>
+        <v>799848.4967900001</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>882872.88791</v>
+        <v>889934.09241</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>1031729.34908</v>
+        <v>1037838.50168</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>1275325.13044</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>1950969.04315</v>
+        <v>1951193.98615</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>2524359.89623</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>2527456.24533</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>4461161.138</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>14197.38241</v>
@@ -1079,55 +1000,60 @@
         <v>26409.90367</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>25384.16821</v>
+        <v>25384.76005</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>23421.69068</v>
+        <v>23425.76219</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>32535.67272</v>
+        <v>32946.78891</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>72124.36095999999</v>
+        <v>73131.80875999999</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>96549.71752000001</v>
+        <v>96549.71751999999</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>126026.51145</v>
+        <v>126077.4262</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>145394.35523</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>145759.18553</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>281670.763</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>44972.33206</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>48049.12384</v>
+        <v>48049.12383999999</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>60304.72240999999</v>
+        <v>60304.72241</v>
       </c>
       <c r="F9" s="47" t="n">
         <v>62025.06219</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>63477.1058</v>
+        <v>63547.63480000001</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>82571.3049</v>
+        <v>82595.94321</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>138922.78116</v>
+        <v>139143.01128</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>173282.8212</v>
+        <v>173589.42723</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>217484.43031</v>
@@ -1136,13 +1062,18 @@
         <v>306377.03565</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>376824.65805</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>377419.67652</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>521333.11</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>21773.43805</v>
@@ -1157,16 +1088,16 @@
         <v>31738.57689</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>34125.97058</v>
+        <v>34196.49958</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>49644.05265999999</v>
+        <v>49667.00683</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>54428.59250999999</v>
+        <v>54524.43889</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>82709.17581</v>
+        <v>82949.85253</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>105785.0075</v>
@@ -1175,13 +1106,18 @@
         <v>156328.25475</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>201487.10917</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>202041.74976</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>338867.482</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>22153.05654</v>
@@ -1202,10 +1138,10 @@
         <v>28905.09083</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>75954.13906</v>
+        <v>75961.23906000001</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>84111.10229</v>
+        <v>84165.44551999999</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>101997.07319</v>
@@ -1214,13 +1150,18 @@
         <v>135790.0798</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>162675.95732</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>162716.3352</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>158050.62</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>1045.83747</v>
@@ -1238,16 +1179,16 @@
         <v>3162.40476</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>4022.16141</v>
+        <v>4023.84555</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>8540.049590000001</v>
+        <v>8657.333329999999</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>6462.543100000001</v>
+        <v>6474.12918</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>9702.349620000001</v>
+        <v>9702.349619999999</v>
       </c>
       <c r="L12" s="48" t="n">
         <v>14258.7011</v>
@@ -1255,11 +1196,16 @@
       <c r="M12" s="48" t="n">
         <v>12661.59156</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>24415.008</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>1092882.93291</v>
@@ -1271,37 +1217,42 @@
         <v>1601672.63182</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>1783580.88801</v>
+        <v>1783612.47806</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>2194264.5132</v>
+        <v>2197436.812799999</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>2582040.68084</v>
+        <v>2584645.2235</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>2813143.461</v>
+        <v>2830930.30717</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>3339550.83595</v>
+        <v>3373841.90115</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>4065158.97472</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>5543544.054350001</v>
+        <v>5547497.21761</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>7133747.634269999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>7173864.30978</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>10910330.944</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>735979.0038799999</v>
+        <v>735979.00388</v>
       </c>
       <c r="D14" s="47" t="n">
         <v>859656.7132699999</v>
@@ -1310,34 +1261,39 @@
         <v>1143322.66592</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>1260151.48622</v>
+        <v>1260160.86469</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>1550651.59351</v>
+        <v>1553012.8078</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>1840040.60054</v>
+        <v>1841870.4351</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>1960427.0941</v>
+        <v>1971444.29733</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>2385690.45602</v>
+        <v>2406941.04541</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>2846680.11325</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>3864220.11648</v>
+        <v>3867382.54717</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>4973985.199659999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>5001901.52683</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>7307070.762</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>488970.32352</v>
@@ -1349,34 +1305,39 @@
         <v>789759.58923</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>913602.00037</v>
+        <v>913602.0003699999</v>
       </c>
       <c r="G15" s="48" t="n">
         <v>1199656.97038</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>1395935.82513</v>
+        <v>1397537.49899</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>1488837.53922</v>
+        <v>1498764.54816</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>1778953.215</v>
+        <v>1797346.42446</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>2141915.31663</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>3003896.01935</v>
+        <v>3005461.32543</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>3913186.0414</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>3930501.48747</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>5596998.61</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>223333.7536</v>
@@ -1385,37 +1346,42 @@
         <v>248343.01921</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>314409.04281</v>
+        <v>314409.0428100001</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>298014.6401</v>
+        <v>298024.0185700001</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>294800.18933</v>
+        <v>297161.40362</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>378802.94905</v>
+        <v>379007.39355</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>416903.38325</v>
+        <v>417958.06288</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>544540.0239000001</v>
+        <v>547101.07648</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>633243.3238900001</v>
+        <v>633243.32389</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>762467.6551800001</v>
+        <v>763392.72427</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>930904.7492899999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>934473.90243</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>1547749.271</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>23249.49222</v>
@@ -1424,7 +1390,7 @@
         <v>31271.55094</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>38181.96488</v>
+        <v>38181.96487999999</v>
       </c>
       <c r="F17" s="48" t="n">
         <v>47670.07859</v>
@@ -1436,25 +1402,30 @@
         <v>58225.24631</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>49681.43648999999</v>
+        <v>49692.69731</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>58834.9549</v>
+        <v>59131.28225</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>67283.60516999998</v>
+        <v>67283.60517</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>87500.29329999999</v>
+        <v>88172.34882000001</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>120398.0636</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>127429.79156</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>127852.148</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>425.43454</v>
@@ -1466,22 +1437,22 @@
         <v>972.069</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>864.7671599999999</v>
+        <v>864.76716</v>
       </c>
       <c r="G18" s="48" t="n">
         <v>3423.19902</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>7076.58005</v>
+        <v>7100.29625</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>5004.73514</v>
+        <v>5028.98898</v>
       </c>
       <c r="J18" s="48" t="n">
         <v>3362.26222</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>4237.86756</v>
+        <v>4237.867560000001</v>
       </c>
       <c r="L18" s="48" t="n">
         <v>10356.14865</v>
@@ -1489,11 +1460,16 @@
       <c r="M18" s="48" t="n">
         <v>9496.345370000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>34470.733</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>356903.92903</v>
@@ -1505,34 +1481,39 @@
         <v>458349.9659</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>523429.40179</v>
+        <v>523451.61337</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>643612.91969</v>
+        <v>644424.005</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>742000.0803</v>
+        <v>742774.7884</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>852716.3669</v>
+        <v>859486.0098400001</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>953860.3799300001</v>
+        <v>966900.85574</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>1218478.86147</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>1679323.93787</v>
+        <v>1680114.67044</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>2159762.43461</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>2171962.78295</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>3603260.182</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>206982.45761</v>
@@ -1544,37 +1525,42 @@
         <v>293611.61849</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>325149.34874</v>
+        <v>325171.64243</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>398640.14304</v>
+        <v>399482.59848</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>441820.92035</v>
+        <v>442700.45532</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>527265.6339</v>
+        <v>530801.2183600001</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>617820.194</v>
+        <v>626409.39031</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>766905.0502300001</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>906900.3711900001</v>
+        <v>908994.59987</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1179302.25635</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1188842.77361</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1476233.1</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>6404.803139999999</v>
+        <v>6404.80314</v>
       </c>
       <c r="D21" s="48" t="n">
         <v>6663.07034</v>
@@ -1592,28 +1578,33 @@
         <v>17532.25856</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>25839.73144</v>
+        <v>25849.07082</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>27533.6686</v>
+        <v>28614.28618</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>33692.06072</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>48903.27915</v>
+        <v>49086.95351000001</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>67823.68454999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>67875.15067</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>92062.356</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>77380.27166999999</v>
+        <v>77380.27167</v>
       </c>
       <c r="D22" s="48" t="n">
         <v>90609.20675</v>
@@ -1622,34 +1613,39 @@
         <v>109896.17842</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>128298.18891</v>
+        <v>128307.87636</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>149414.15376</v>
+        <v>149468.60791</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>167270.92817</v>
+        <v>167428.72466</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>209184.82151</v>
+        <v>210331.03995</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>241913.75536</v>
+        <v>245859.87728</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>308715.0286999999</v>
+        <v>308715.0287</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>373890.60247</v>
+        <v>374027.56906</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>473020.20831</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>473919.57055</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>593752.232</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>123197.3828</v>
@@ -1661,34 +1657,39 @@
         <v>173083.08241</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>184712.16786</v>
+        <v>184724.7741</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>233049.71023</v>
+        <v>233837.71152</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>257017.73362</v>
+        <v>257739.4721</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>292241.08095</v>
+        <v>294621.10759</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>348372.77004</v>
+        <v>351935.22685</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>424497.96081</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>484106.48957</v>
+        <v>485880.0772999999</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>638458.36349</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>647048.0523900001</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>790418.512</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>149921.47142</v>
@@ -1700,34 +1701,39 @@
         <v>164738.34741</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>198280.05305</v>
+        <v>198279.97094</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>244972.77665</v>
+        <v>244941.40652</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>300179.15995</v>
+        <v>300074.3330800001</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>325450.733</v>
+        <v>328684.79148</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>336040.18593</v>
+        <v>340491.46543</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>451573.81124</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>772423.5666799999</v>
+        <v>771120.07057</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>980460.17826</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>983120.00934</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>2127027.082</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>33536.35934</v>
@@ -1742,31 +1748,36 @@
         <v>46241.23867</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>74883.49639</v>
+        <v>74947.56396000001</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>95862.0482</v>
+        <v>95881.70795</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>219293.31236</v>
+        <v>220117.44196</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>158744.90723</v>
+        <v>159903.2375</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>218646.08658</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>856596.2688600002</v>
+        <v>856609.87492</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>401724.58927</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>401444.36173</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>922921.857</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>262.99912</v>
@@ -1790,7 +1801,7 @@
         <v>534.4532800000001</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>499.7832300000001</v>
+        <v>499.78323</v>
       </c>
       <c r="K26" s="48" t="n">
         <v>316.02521</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>736.58213</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>610.2140000000001</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,14 +1856,19 @@
       <c r="M27" s="48" t="n">
         <v>112.82059</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>157.119</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>3451.779189999999</v>
+        <v>3451.77919</v>
       </c>
       <c r="D28" s="48" t="n">
         <v>3796.04551</v>
@@ -1865,25 +1886,30 @@
         <v>5892.81043</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>10613.36585</v>
+        <v>10718.55933</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>11884.0326</v>
+        <v>12067.57378</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>14833.90666</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>21747.95918</v>
+        <v>21748.41691</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>36847.83779</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>37342.29515999999</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>75162.751</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>675.3341800000001</v>
@@ -1892,7 +1918,7 @@
         <v>837.1695599999999</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>474.1092999999999</v>
+        <v>474.1093</v>
       </c>
       <c r="F29" s="48" t="n">
         <v>270.42178</v>
@@ -1901,7 +1927,7 @@
         <v>53.46889</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>571.3141000000001</v>
+        <v>571.3140999999999</v>
       </c>
       <c r="I29" s="48" t="n">
         <v>704.51504</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>145.90694</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>4256.614</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>541.6865700000001</v>
@@ -1937,31 +1968,36 @@
         <v>927.65693</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>2137.53782</v>
+        <v>2168.0827</v>
       </c>
       <c r="H30" s="48" t="n">
         <v>2034.48705</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>5211.76512</v>
+        <v>5211.765119999999</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>2105.21091</v>
+        <v>2116.21091</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>2790.752559999999</v>
+        <v>2790.75256</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>3555.69342</v>
+        <v>3555.693420000001</v>
       </c>
       <c r="M30" s="48" t="n">
         <v>5173.15984</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>6580.458</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>219.45117</v>
@@ -1985,7 +2021,7 @@
         <v>222.0408</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>311.52581</v>
+        <v>312.47792</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>634.27901</v>
@@ -1994,13 +2030,18 @@
         <v>2005.66857</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>1150.942</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>1181.45215</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>872.375</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>16319.05014</v>
@@ -2015,31 +2056,36 @@
         <v>21525.57908</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>46870.36546</v>
+        <v>46903.88815</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>67157.40612</v>
+        <v>67172.67147</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>171098.32858</v>
+        <v>171652.29129</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>93820.79869999998</v>
+        <v>94403.75784000001</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>154314.28798</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>744911.3952200001</v>
+        <v>744969.87601</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>259941.96172</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>260374.02644</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>675575.885</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>2916.15095</v>
@@ -2048,7 +2094,7 @@
         <v>3465.58732</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>4496.29636</v>
+        <v>4496.296359999999</v>
       </c>
       <c r="F33" s="48" t="n">
         <v>1451.48133</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>1924.06712</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>2954.014</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2090,7 +2141,7 @@
         <v>12.90614</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>36.94976999999999</v>
+        <v>36.94977</v>
       </c>
       <c r="G34" s="48" t="n">
         <v>51.25684</v>
@@ -2111,13 +2162,18 @@
         <v>8.23634</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>53.77909</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>53.93348</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>9149.908019999999</v>
@@ -2135,28 +2191,33 @@
         <v>17949.82864</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>16850.43355</v>
+        <v>16854.82795</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>29678.36403</v>
+        <v>29843.33744</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>36627.35907999999</v>
+        <v>37007.23692</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>44084.86333</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>81513.52185999999</v>
+        <v>81468.18939999999</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>95637.53205000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>94400.11787999999</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>156752.427</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>30526.9853</v>
@@ -2171,31 +2232,36 @@
         <v>42076.3805</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>93662.65655</v>
+        <v>93795.65300000001</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>103152.17183</v>
+        <v>103192.44854</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>212560.34636</v>
+        <v>213402.6443</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>137093.05009</v>
+        <v>138064.79736</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>210053.73923</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>790220.7771900001</v>
+        <v>790437.3877700001</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>295264.86985</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>296173.10366</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>599065.027</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>1974.77931</v>
@@ -2210,7 +2276,7 @@
         <v>3067.42347</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>2671.257900000001</v>
+        <v>2671.2579</v>
       </c>
       <c r="H37" s="48" t="n">
         <v>3869.58956</v>
@@ -2219,7 +2285,7 @@
         <v>3741.04559</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>7604.08369</v>
+        <v>7604.083689999999</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>8688.648210000001</v>
@@ -2228,13 +2294,18 @@
         <v>14059.80666</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>11568.5706</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>11569.24658</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>16345.565</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>4424.30294</v>
@@ -2246,10 +2317,10 @@
         <v>2380.50534</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>6161.37723</v>
+        <v>6161.377229999999</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>6986.72719</v>
+        <v>7108.790029999999</v>
       </c>
       <c r="H38" s="48" t="n">
         <v>9142.08079</v>
@@ -2258,7 +2329,7 @@
         <v>20359.50802</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>15700.27648</v>
+        <v>16024.67206</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>11143.8604</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>15372.65701</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>17242.926</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>143.39964</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>23.77205</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>104.455</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>17572.24764</v>
@@ -2327,31 +2408,36 @@
         <v>20894.33952</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>55612.35503</v>
+        <v>55620.56238</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>81549.98281</v>
+        <v>81590.10952000001</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>175755.25692</v>
+        <v>176583.46851</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>104725.27574</v>
+        <v>105369.18396</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>179173.2557</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>741144.45735</v>
+        <v>741167.79888</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>254213.73243</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>254724.04684</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>538108.051</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>2993.48039</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>2116.04452</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>3318.522</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2423,13 +2514,18 @@
         <v>0.66198</v>
       </c>
       <c r="M42" s="48" t="n">
-        <v>18.47368</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>18.47889</v>
+      </c>
+      <c r="N42" s="48" t="n">
+        <v>68.32299999999999</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>3418.77538</v>
@@ -2444,31 +2540,36 @@
         <v>10536.54309</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>19332.85571</v>
+        <v>19335.58197</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>4618.501459999999</v>
+        <v>4618.65146</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>11613.13148</v>
+        <v>11627.21783</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>7451.86988</v>
+        <v>7455.313349999999</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>9881.51527</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>16803.1252</v>
+        <v>16996.39425</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>11951.61956</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>12348.85777</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>23877.185</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>20660.50909</v>
@@ -2480,34 +2581,39 @@
         <v>32750.11665</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>48118.36837999999</v>
+        <v>48120.17907</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>60536.39550999999</v>
+        <v>60547.05389</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>76819.86856999999</v>
+        <v>76883.34698</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>90876.63425</v>
+        <v>91757.13398999997</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>110475.90658</v>
+        <v>111704.17765</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>134210.9424</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>223903.97156</v>
+        <v>223945.37238</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>260984.10102</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>262816.04508</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>303144.343</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>20001.07493</v>
@@ -2519,34 +2625,39 @@
         <v>30990.19437</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>45716.57248999999</v>
+        <v>45718.38317999999</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>58192.23310000001</v>
+        <v>58202.89148000001</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>74581.30859</v>
+        <v>74644.787</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>88313.70474</v>
+        <v>89194.20448</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>106401.94096</v>
+        <v>107630.21203</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>128200.91545</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>217566.54659</v>
+        <v>217607.94741</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>252237.13256</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>254069.07662</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>284034.986</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>659.4341599999999</v>
@@ -2581,11 +2692,16 @@
       <c r="M46" s="48" t="n">
         <v>8746.968459999998</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>19109.357</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>132270.33637</v>
@@ -2597,40 +2713,45 @@
         <v>152447.76625</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>154326.54284</v>
+        <v>154324.65004</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>165657.22098</v>
+        <v>165546.26359</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>216069.16775</v>
+        <v>215880.24551</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>241307.06475</v>
+        <v>243642.45515</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>247216.13649</v>
+        <v>250625.72792</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>325955.21619</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>614895.0867900001</v>
+        <v>613347.1853400001</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>825935.7966600001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>825575.2223300001</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>2147739.569</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>6917.267</v>
+        <v>6917.267000000001</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>8732.848380000001</v>
+        <v>8732.848379999999</v>
       </c>
       <c r="E48" s="47" t="n">
         <v>21580.90657</v>
@@ -2639,31 +2760,36 @@
         <v>18931.42406</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>17740.69666000001</v>
+        <v>17740.70196</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>28511.72758999999</v>
+        <v>28531.38756</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>25303.97271</v>
+        <v>25420.6271</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>25846.36331</v>
+        <v>26240.9506</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>33418.45003</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>42004.66421</v>
+        <v>42039.72468</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>94104.26653000001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>108176.36231</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>137169.066</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>140.34738</v>
@@ -2675,10 +2801,10 @@
         <v>153.42222</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>91.08448999999999</v>
+        <v>91.08449</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>158.14544</v>
+        <v>158.15074</v>
       </c>
       <c r="H49" s="48" t="n">
         <v>260.37404</v>
@@ -2687,7 +2813,7 @@
         <v>635.00114</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>570.1771</v>
+        <v>570.1771000000001</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>197.62416</v>
@@ -2696,16 +2822,21 @@
         <v>487.93619</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>2282.08302</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>2283.47041</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>4852.213</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>6776.91962</v>
+        <v>6776.919619999999</v>
       </c>
       <c r="D50" s="48" t="n">
         <v>8179.7365</v>
@@ -2720,28 +2851,33 @@
         <v>17582.55122</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>28251.35355</v>
+        <v>28271.01352</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>24668.97157</v>
+        <v>24785.62596</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>25276.18621</v>
+        <v>25670.7735</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>33220.82587</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>41516.72802</v>
+        <v>41551.78849</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>91822.18351</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>105892.8919</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>132316.853</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>9081.841690000001</v>
@@ -2756,31 +2892,36 @@
         <v>22157.2808</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>32914.11856</v>
+        <v>32914.11859000001</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>61795.50213</v>
+        <v>63106.39552999999</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>33559.85423999999</v>
+        <v>33767.39349</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>63674.08092</v>
+        <v>64277.50377</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>33783.01708</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>83529.2423</v>
+        <v>83612.69574</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>76480.80111</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>77110.21884999999</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>159704.171</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>434.01983</v>
@@ -2804,22 +2945,27 @@
         <v>2075.49592</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>2403.2751</v>
+        <v>2485.7239</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>1519.20953</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>984.09848</v>
+        <v>1004.84848</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>9484.113620000002</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>9484.11362</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>13210.659</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>598.0183199999999</v>
@@ -2834,7 +2980,7 @@
         <v>328.56308</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>675.7942100000001</v>
+        <v>675.7942099999999</v>
       </c>
       <c r="H53" s="48" t="n">
         <v>2608.434639999999</v>
@@ -2843,22 +2989,27 @@
         <v>2124.865</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>5358.00087</v>
+        <v>5358.20758</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>930.9188300000001</v>
+        <v>930.9188299999998</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>3345.22463</v>
+        <v>3361.42586</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>2489.45532</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>2489.89658</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>5299.192</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>8049.803539999999</v>
@@ -2873,31 +3024,36 @@
         <v>21514.75886</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>31860.05177</v>
+        <v>31860.0518</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>57785.45315</v>
+        <v>59096.34655</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>29359.49332</v>
+        <v>29567.03257</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>55912.80495000001</v>
+        <v>56433.57229</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>31332.88872</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>79199.91919</v>
+        <v>79246.42140000001</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>64507.23217</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>65136.20865</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>141194.32</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>130105.76168</v>
@@ -2909,40 +3065,45 @@
         <v>58815.93115999999</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>151100.6861</v>
+        <v>151098.7933</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>150483.79908</v>
+        <v>150372.84696</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>182785.39321</v>
+        <v>181305.23754</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>233051.18322</v>
+        <v>235295.68876</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>209388.41888</v>
+        <v>212589.17475</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>325590.64914</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>573370.5087</v>
+        <v>571774.21428</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>843559.2620799999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>856641.36579</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>2125204.464</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>25702.13586</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>26922.28651</v>
+        <v>26922.28651000001</v>
       </c>
       <c r="E56" s="47" t="n">
         <v>29321.21602</v>
@@ -2954,28 +3115,33 @@
         <v>29849.16984</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>36879.16361</v>
+        <v>36884.27982</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>38089.04989</v>
+        <v>38456.18962999999</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>45979.4795</v>
+        <v>46565.63654</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>52237.01701</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>92247.94863</v>
+        <v>92258.01321999999</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>117335.93862</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>119041.0832</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>263873.419</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>104403.62582</v>
@@ -2987,31 +3153,34 @@
         <v>29494.71514</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>122253.00307</v>
+        <v>122251.11027</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>120634.62924</v>
+        <v>120523.67712</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>145906.2296</v>
+        <v>144420.95772</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>194962.13333</v>
+        <v>196839.49913</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>163408.93938</v>
+        <v>166023.53821</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>273353.63213</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>481122.5600699999</v>
+        <v>479516.20106</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>726223.32346</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>737600.2825900001</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>1861331.045</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>856</v>
@@ -3041,31 +3213,34 @@
         <v>903</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>1071</v>
+        <v>1074</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>1102</v>
+        <v>1111</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>1167</v>
+        <v>1183</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>1218</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>1169</v>
+        <v>1277</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>1399</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>